--- a/medicine/Mort/Cimetière_militaire_de_Tartu/Cimetière_militaire_de_Tartu.xlsx
+++ b/medicine/Mort/Cimetière_militaire_de_Tartu/Cimetière_militaire_de_Tartu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_de_Tartu</t>
+          <t>Cimetière_militaire_de_Tartu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière militaire de Tartu, (en estonien : Tartu sõjaväekalmistu) est un cimetière de Tartu, en Estonie. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_militaire_de_Tartu</t>
+          <t>Cimetière_militaire_de_Tartu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est situé dans la partie nord-ouest du cimetière de Raadi. 
 L'entrée principale du cimetière est rue Nurme tänav et sa superficie est de 1,9 hectare. 
@@ -521,9 +535,9 @@
 Le mémorial a été démoli à la fin des années 1940.
 Pendant l'occupation soviétique, les soldats soviétiques qui ont servi à Tartu ont également été enterrés dans le cimetière. 
 Le cimetière devait être transformé en parc en 1987, mais ce plan n'a pas pu être mis en œuvre. Le mémorial de la guerre d'indépendance a été restauré entre 1988 et 1991, en utilisant des parties enterrées de l'ancien mémorial.
-Le cimetière a été reconnu monument culturel en 1997 (monument n° 4323). Dans le cimetière, il y a une fosse commune de ceux qui sont morts pendant la Seconde Guerre mondiale, qui a été reconnue comme monument culturel distinct en 1998 (monument n° 4352)[1].
+Le cimetière a été reconnu monument culturel en 1997 (monument n° 4323). Dans le cimetière, il y a une fosse commune de ceux qui sont morts pendant la Seconde Guerre mondiale, qui a été reconnue comme monument culturel distinct en 1998 (monument n° 4352).
 Les cercueils ne sont plus enterrés en raison de la proximité de puits. 
-Une zone d'inhumation des urnes a été aménagée[2].
+Une zone d'inhumation des urnes a été aménagée.
 </t>
         </is>
       </c>
